--- a/Dataset1/Detection_result/results_5vs1.xlsx
+++ b/Dataset1/Detection_result/results_5vs1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SmartContract\Github\VulHunter\Dataset1\Detection_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDA2422-A0D6-4127-9E28-50E73197B855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F06188-018D-47DE-B987-30A2950D6C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AVG" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="72">
   <si>
     <t>Severity</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Overall</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>0 (0%)</t>
   </si>
   <si>
@@ -195,7 +192,51 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 (0.03939112574210067%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>203 (0.5711713232604597%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,775 (16.248839368616526%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,846 (22.075912326608705%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 (0.05908668861315101%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>285 (0.8018907740356209%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 (0%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Failed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>17 (0.044041450777202075%)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>229 (0.5932642487046632%)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -203,11 +244,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>229 (0.5932642487046632%)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>395 (1.0233160621761658%)</t>
+    <t>8,490 (21.99481865284974%)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -215,15 +252,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>8,490 (21.99481865284974%)</t>
+    <t>395 (1.02331606217617%)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>Overall</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>STD</t>
+    <t>Test Failed</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1175,7 +1212,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1183,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB39"/>
+  <dimension ref="A1:BB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AV42" sqref="AV42"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1217,7 +1254,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -1259,7 +1296,7 @@
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
@@ -1269,7 +1306,7 @@
       <c r="AS1" s="3"/>
       <c r="AT1" s="3"/>
       <c r="AU1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
@@ -1283,160 +1320,160 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="S2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="W2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="AA2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="AE2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="AI2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="AM2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="AT2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AU2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AV2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="BB2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
@@ -7585,10 +7622,10 @@
     <row r="39" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -7598,49 +7635,49 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
@@ -7650,7 +7687,7 @@
       <c r="AS39" s="3"/>
       <c r="AT39" s="3"/>
       <c r="AU39" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="AV39" s="3"/>
       <c r="AW39" s="3"/>
@@ -7660,36 +7697,124 @@
       <c r="BA39" s="3"/>
       <c r="BB39" s="3"/>
     </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="38">
+    <mergeCell ref="AU39:BB39"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="AM39:AT39"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="AM1:AT1"/>
+    <mergeCell ref="AU1:BB1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="AM1:AT1"/>
-    <mergeCell ref="AU1:BB1"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="AU40:BB40"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AE40:AH40"/>
+    <mergeCell ref="AI40:AL40"/>
+    <mergeCell ref="AM40:AT40"/>
     <mergeCell ref="AE39:AH39"/>
     <mergeCell ref="AI39:AL39"/>
     <mergeCell ref="C39:J39"/>
     <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="W39:Z39"/>
-    <mergeCell ref="AA39:AD39"/>
-    <mergeCell ref="AM39:AT39"/>
-    <mergeCell ref="AU39:BB39"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7698,10 +7823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC33DA51-7520-425C-BAE8-3CA1458F3EAF}">
-  <dimension ref="A1:BB39"/>
+  <dimension ref="A1:BB40"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW42" sqref="AW42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7727,7 +7852,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -7769,7 +7894,7 @@
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
@@ -7779,7 +7904,7 @@
       <c r="AS1" s="3"/>
       <c r="AT1" s="3"/>
       <c r="AU1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
@@ -7793,160 +7918,160 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="S2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="W2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="AA2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="AE2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="AI2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AL2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="AM2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="AT2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AU2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AV2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="BB2" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
@@ -7981,16 +8106,16 @@
         <v>1.8848913347167779</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O3" s="1">
         <v>99.019607843137194</v>
@@ -8143,16 +8268,16 @@
         <v>4.2773629267652096</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O4" s="1">
         <v>83.3333333333333</v>
@@ -8167,64 +8292,64 @@
         <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM4" s="1">
         <v>87.164750957854395</v>
@@ -8305,16 +8430,16 @@
         <v>5.2546275901448176</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O5" s="1">
         <v>99.134199134199093</v>
@@ -8329,28 +8454,28 @@
         <v>97.368421052631504</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA5" s="1">
         <v>64.502164502164504</v>
@@ -8365,16 +8490,16 @@
         <v>14.58333333333333</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI5" s="1">
         <v>85.714285714285708</v>
@@ -8467,16 +8592,16 @@
         <v>2.055335968379453</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O6" s="1">
         <v>96.153846153846104</v>
@@ -8491,28 +8616,28 @@
         <v>86.956521739130395</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA6" s="1">
         <v>71.794871794871796</v>
@@ -8527,16 +8652,16 @@
         <v>15.38461538461539</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI6" s="1">
         <v>83.333333333333343</v>
@@ -8629,16 +8754,16 @@
         <v>7.0263495118341801</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O7" s="1">
         <v>99.047619047618994</v>
@@ -8653,52 +8778,52 @@
         <v>97.190082644628106</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI7" s="1">
         <v>82.521008403361336</v>
@@ -8791,28 +8916,28 @@
         <v>8.2620234014394658</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S8" s="1">
         <v>92.993135604196354</v>
@@ -8839,40 +8964,40 @@
         <v>29.214123006833709</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM8" s="1">
         <v>85.092604584898297</v>
@@ -8953,16 +9078,16 @@
         <v>5.0928017747563903</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O9" s="1">
         <v>86.958099038635893</v>
@@ -8977,64 +9102,64 @@
         <v>36.9851007887817</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM9" s="1">
         <v>93.796481044803102</v>
@@ -9123,16 +9248,16 @@
         <v>4.8361989297194707</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O10" s="1">
         <f>AVERAGE(O3:O9)</f>
@@ -9363,28 +9488,28 @@
         <v>38.646820027063598</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE11" s="1">
         <v>77.03180212014135</v>
@@ -9513,40 +9638,40 @@
         <v>88.8888888888889</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE12" s="1">
         <v>84.959688629413392</v>
@@ -9561,16 +9686,16 @@
         <v>18.154311649016641</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM12" s="1">
         <v>88.796219071448405</v>
@@ -9651,40 +9776,40 @@
         <v>1.514125140959288</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W13" s="1">
         <v>76.738764408755344</v>
@@ -9711,16 +9836,16 @@
         <v>6.4627813040969402</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI13" s="1">
         <v>25.87747701074991</v>
@@ -9849,16 +9974,16 @@
         <v>65.671641791044763</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA14" s="1">
         <v>68.376068376068375</v>
@@ -9999,28 +10124,28 @@
         <v>32.4324324324324</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA15" s="1">
         <v>64.835164835164832</v>
@@ -10137,16 +10262,16 @@
         <v>4.4154070002217134</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O16" s="1">
         <v>99.145299145299106</v>
@@ -10173,16 +10298,16 @@
         <v>51.452282157676343</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA16" s="1">
         <v>63.931623931623918</v>
@@ -10299,16 +10424,16 @@
         <v>1.1110954551569669</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O17" s="1">
         <v>65.414507772020698</v>
@@ -10323,64 +10448,64 @@
         <v>0.298730395817774</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM17" s="1">
         <v>85.647668393782297</v>
@@ -10461,16 +10586,16 @@
         <v>8.0000000000000071</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O18" s="1">
         <v>100</v>
@@ -10485,64 +10610,64 @@
         <v>100</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM18" s="1">
         <v>60</v>
@@ -10623,16 +10748,16 @@
         <v>1.81735911851559</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O19" s="1">
         <v>100</v>
@@ -10647,64 +10772,64 @@
         <v>100</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM19" s="1">
         <v>94.193445752465806</v>
@@ -11025,16 +11150,16 @@
         <v>58.620689655172413</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W21" s="1">
         <v>69.286577992744853</v>
@@ -11049,28 +11174,28 @@
         <v>17.532467532467528</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI21" s="1">
         <v>81.983071342200731</v>
@@ -11175,52 +11300,52 @@
         <v>99.911321312444585</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE22" s="1">
         <v>78.432642487046635</v>
@@ -11235,16 +11360,16 @@
         <v>3.812824956672443</v>
       </c>
       <c r="AI22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM22" s="1">
         <v>86.191709844559497</v>
@@ -11325,52 +11450,52 @@
         <v>19.186459719090848</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA23" s="1">
         <v>62.780098746676792</v>
@@ -11511,40 +11636,40 @@
         <v>90.994371482176362</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE24" s="1">
         <v>84.87370838117107</v>
@@ -11689,16 +11814,16 @@
         <v>79.681574583371102</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W25" s="1">
         <f>AVERAGE(W21:W24)</f>
@@ -11884,64 +12009,64 @@
         <v>69.731081926203871</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM26" s="2">
         <v>87.26848853775418</v>
@@ -12046,64 +12171,64 @@
         <v>100</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM27" s="1">
         <v>92.982456140350806</v>
@@ -12196,76 +12321,76 @@
         <v>100</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM28" s="1">
         <v>91.176470588235205</v>
@@ -12358,76 +12483,76 @@
         <v>100</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM29" s="2">
         <v>88.264248704663217</v>
@@ -12548,64 +12673,64 @@
         <v>86.837634471955482</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM30" s="1">
         <f>AVERAGE(AM26:AM29)</f>
@@ -12716,76 +12841,76 @@
         <v>100</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM31" s="1">
         <v>88.099630996309898</v>
@@ -12878,76 +13003,76 @@
         <v>100</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM32" s="1">
         <v>85.714285714285694</v>
@@ -13028,16 +13153,16 @@
         <v>9.5093354841527535</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O33" s="1">
         <v>99.954191479615204</v>
@@ -13052,64 +13177,64 @@
         <v>99.862825788751721</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM33" s="1">
         <v>88.043976179569398</v>
@@ -13190,16 +13315,16 @@
         <v>4.2587550554695186</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O34" s="1">
         <v>83.321702721563156</v>
@@ -13214,64 +13339,64 @@
         <v>0</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM34" s="1">
         <v>91.346824842986706</v>
@@ -13352,16 +13477,16 @@
         <v>2.7612160031029358</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O35" s="1">
         <v>97.649934198157553</v>
@@ -13376,64 +13501,64 @@
         <v>92.437991530550505</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM35" s="1">
         <v>89.922917841699501</v>
@@ -13538,64 +13663,64 @@
         <v>99.415204678362571</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM36" s="1">
         <v>89.705882352941103</v>
@@ -13716,64 +13841,64 @@
         <v>73.022723458858778</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AH37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AJ37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AK37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AM37" s="1">
         <f>AVERAGE(AM31:AM36)</f>
@@ -13842,7 +13967,7 @@
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>17</v>
@@ -14059,10 +14184,10 @@
     <row r="39" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -14072,49 +14197,49 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
       <c r="AH39" s="3"/>
       <c r="AI39" s="3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
       <c r="AM39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
@@ -14124,7 +14249,7 @@
       <c r="AS39" s="3"/>
       <c r="AT39" s="3"/>
       <c r="AU39" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="AV39" s="3"/>
       <c r="AW39" s="3"/>
@@ -14134,8 +14259,117 @@
       <c r="BA39" s="3"/>
       <c r="BB39" s="3"/>
     </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="38">
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AE40:AH40"/>
+    <mergeCell ref="AI40:AL40"/>
+    <mergeCell ref="AM40:AT40"/>
+    <mergeCell ref="AU40:BB40"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="AM1:AT1"/>
+    <mergeCell ref="AU1:BB1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="AU39:BB39"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AE39:AH39"/>
+    <mergeCell ref="AI39:AL39"/>
+    <mergeCell ref="A38:A40"/>
     <mergeCell ref="K39:N39"/>
     <mergeCell ref="O39:R39"/>
     <mergeCell ref="S39:V39"/>
@@ -14143,27 +14377,6 @@
     <mergeCell ref="AA39:AD39"/>
     <mergeCell ref="C39:J39"/>
     <mergeCell ref="AM39:AT39"/>
-    <mergeCell ref="AU39:BB39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="AE39:AH39"/>
-    <mergeCell ref="AI39:AL39"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="AM1:AT1"/>
-    <mergeCell ref="AU1:BB1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
